--- a/report/figures/task4/task4_tables_simulated1000times.xlsx
+++ b/report/figures/task4/task4_tables_simulated1000times.xlsx
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4108853349109182</v>
+        <v>0.2530561664278781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2443089865035236</v>
+        <v>0.1936420312302616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2560321565224772</v>
+        <v>0.1816751909679709</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1738239676670924</v>
+        <v>0.1396210238135417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.162653635010385</v>
+        <v>0.1216841817484286</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1709035967158819</v>
+        <v>0.1324775318442527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2268199515296026</v>
+        <v>0.1701650813740914</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2468548543861968</v>
+        <v>0.205177716767411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4184222957446717</v>
+        <v>0.2517943488459825</v>
       </c>
     </row>
   </sheetData>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1179983785102372</v>
+        <v>0.05565366697233708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06059548994841083</v>
+        <v>0.04346488213541103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04940361329451605</v>
+        <v>0.03828341285281698</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03734506463904307</v>
+        <v>0.0304619449038492</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03448365715203166</v>
+        <v>0.02920976155932796</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03660123854187235</v>
+        <v>0.03070860203128682</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04541046040837623</v>
+        <v>0.0387876655471734</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06106236385253015</v>
+        <v>0.04247216096272229</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1022687818709358</v>
+        <v>0.0535150348799287</v>
       </c>
     </row>
   </sheetData>
@@ -896,31 +896,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.314784150223826</v>
+        <v>9.871721724196425</v>
       </c>
       <c r="C4" t="n">
-        <v>6.534573186524262</v>
+        <v>7.196141576232363</v>
       </c>
       <c r="D4" t="n">
-        <v>6.753787320358789</v>
+        <v>5.376419698088001</v>
       </c>
       <c r="E4" t="n">
-        <v>3.190885776972002</v>
+        <v>2.748148009312585</v>
       </c>
       <c r="F4" t="n">
-        <v>1.716</v>
+        <v>0.1216841817484286</v>
       </c>
       <c r="G4" t="n">
-        <v>2.017436683102567</v>
+        <v>1.74248746289388</v>
       </c>
       <c r="H4" t="n">
-        <v>4.545418351669681</v>
+        <v>6.362796678273945</v>
       </c>
       <c r="I4" t="n">
-        <v>7.144218040151213</v>
+        <v>7.203318527493867</v>
       </c>
       <c r="J4" t="n">
-        <v>6.758763193845949</v>
+        <v>10.86057865980801</v>
       </c>
     </row>
   </sheetData>
@@ -1064,31 +1064,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.06882606297958</v>
+        <v>9.840463787388972</v>
       </c>
       <c r="C4" t="n">
-        <v>7.22657318652426</v>
+        <v>7.178870645950392</v>
       </c>
       <c r="D4" t="n">
-        <v>5.6912242172277</v>
+        <v>5.359479795410322</v>
       </c>
       <c r="E4" t="n">
-        <v>2.499799743645979</v>
+        <v>2.738525462112194</v>
       </c>
       <c r="F4" t="n">
-        <v>0.304</v>
+        <v>0.02920976155932796</v>
       </c>
       <c r="G4" t="n">
-        <v>2.215799743645979</v>
+        <v>1.736621781511721</v>
       </c>
       <c r="H4" t="n">
-        <v>5.7652242172277</v>
+        <v>6.358483087142052</v>
       </c>
       <c r="I4" t="n">
-        <v>7.468573186524259</v>
+        <v>7.181153456684144</v>
       </c>
       <c r="J4" t="n">
-        <v>10.69482606297958</v>
+        <v>10.83506427822278</v>
       </c>
     </row>
   </sheetData>
@@ -1232,31 +1232,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.30919107504666</v>
+        <v>23.62046332785889</v>
       </c>
       <c r="C4" t="n">
-        <v>21.65816843746114</v>
+        <v>22.9138092165436</v>
       </c>
       <c r="D4" t="n">
-        <v>21.84484070805207</v>
+        <v>21.74240680664234</v>
       </c>
       <c r="E4" t="n">
-        <v>16.22198278167535</v>
+        <v>15.83127441084427</v>
       </c>
       <c r="F4" t="n">
-        <v>9.808337969587946</v>
+        <v>7.669759170307095</v>
       </c>
       <c r="G4" t="n">
-        <v>8.324846035614978</v>
+        <v>4.841807571042276</v>
       </c>
       <c r="H4" t="n">
-        <v>24.20361269739259</v>
+        <v>31.92742400312509</v>
       </c>
       <c r="I4" t="n">
-        <v>47.47701188895216</v>
+        <v>49.09662536634362</v>
       </c>
       <c r="J4" t="n">
-        <v>46.74355749146788</v>
+        <v>88.98983330951029</v>
       </c>
     </row>
   </sheetData>
@@ -1400,31 +1400,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.56935257055795</v>
+        <v>23.58920539105144</v>
       </c>
       <c r="C4" t="n">
-        <v>22.86492763603458</v>
+        <v>22.89653828626163</v>
       </c>
       <c r="D4" t="n">
-        <v>21.77207918918972</v>
+        <v>21.72546690396467</v>
       </c>
       <c r="E4" t="n">
-        <v>15.8206841791643</v>
+        <v>15.82165186364388</v>
       </c>
       <c r="F4" t="n">
-        <v>7.692900432702912</v>
+        <v>7.67105980764294</v>
       </c>
       <c r="G4" t="n">
-        <v>4.672607010008781</v>
+        <v>4.835941889660118</v>
       </c>
       <c r="H4" t="n">
-        <v>31.34609461195054</v>
+        <v>31.9231104119932</v>
       </c>
       <c r="I4" t="n">
-        <v>48.04838080539606</v>
+        <v>49.07446029553389</v>
       </c>
       <c r="J4" t="n">
-        <v>83.08389303570925</v>
+        <v>88.96431892792506</v>
       </c>
     </row>
   </sheetData>

--- a/report/figures/task4/task4_tables_simulated1000times.xlsx
+++ b/report/figures/task4/task4_tables_simulated1000times.xlsx
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2530561664278781</v>
+        <v>0.3646173326140852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1936420312302616</v>
+        <v>0.1432944441621046</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1816751909679709</v>
+        <v>0.1767357282249801</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1396210238135417</v>
+        <v>0.1059808089990394</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1216841817484286</v>
+        <v>0.1026384011877066</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1324775318442527</v>
+        <v>0.1035475935903144</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1701650813740914</v>
+        <v>0.1334273681247536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.205177716767411</v>
+        <v>0.1391631539473691</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2517943488459825</v>
+        <v>0.3608426558310708</v>
       </c>
     </row>
   </sheetData>
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05565366697233708</v>
+        <v>0.1035904546517781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04346488213541103</v>
+        <v>0.04050649286216162</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03828341285281698</v>
+        <v>0.03105572870490973</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0304619449038492</v>
+        <v>0.02207941391777777</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02920976155932796</v>
+        <v>0.02167740420394964</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03070860203128682</v>
+        <v>0.0222092309890687</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0387876655471734</v>
+        <v>0.03039156351647832</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04247216096272229</v>
+        <v>0.04126271017745926</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0535150348799287</v>
+        <v>0.08691639641630011</v>
       </c>
     </row>
   </sheetData>
@@ -896,31 +896,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.871721724196425</v>
+        <v>3.95812142663687</v>
       </c>
       <c r="C4" t="n">
-        <v>7.196141576232363</v>
+        <v>1.418086138995737</v>
       </c>
       <c r="D4" t="n">
-        <v>5.376419698088001</v>
+        <v>1.543327873519427</v>
       </c>
       <c r="E4" t="n">
-        <v>2.748148009312585</v>
+        <v>1.048823662618287</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1216841817484286</v>
+        <v>1.0923</v>
       </c>
       <c r="G4" t="n">
-        <v>1.74248746289388</v>
+        <v>1.153461102709598</v>
       </c>
       <c r="H4" t="n">
-        <v>6.362796678273945</v>
+        <v>1.417089234059894</v>
       </c>
       <c r="I4" t="n">
-        <v>7.203318527493867</v>
+        <v>1.330603383967236</v>
       </c>
       <c r="J4" t="n">
-        <v>10.86057865980801</v>
+        <v>3.334034025244109</v>
       </c>
     </row>
   </sheetData>
@@ -1064,31 +1064,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.840463787388972</v>
+        <v>0.9658465348301318</v>
       </c>
       <c r="C4" t="n">
-        <v>7.178870645950392</v>
+        <v>0.4805165453427234</v>
       </c>
       <c r="D4" t="n">
-        <v>5.359479795410322</v>
+        <v>0.3579003355706806</v>
       </c>
       <c r="E4" t="n">
-        <v>2.738525462112194</v>
+        <v>0.3478119969187544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02920976155932796</v>
+        <v>0.3446650000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>1.736621781511721</v>
+        <v>0.358943490901962</v>
       </c>
       <c r="H4" t="n">
-        <v>6.358483087142052</v>
+        <v>0.3903419108650018</v>
       </c>
       <c r="I4" t="n">
-        <v>7.181153456684144</v>
+        <v>0.506202262463244</v>
       </c>
       <c r="J4" t="n">
-        <v>10.83506427822278</v>
+        <v>0.913843701408272</v>
       </c>
     </row>
   </sheetData>
@@ -1232,31 +1232,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.62046332785889</v>
+        <v>31.08452889269866</v>
       </c>
       <c r="C4" t="n">
-        <v>22.9138092165436</v>
+        <v>15.75328297571847</v>
       </c>
       <c r="D4" t="n">
-        <v>21.74240680664234</v>
+        <v>7.813397441518031</v>
       </c>
       <c r="E4" t="n">
-        <v>15.83127441084427</v>
+        <v>4.966058140982821</v>
       </c>
       <c r="F4" t="n">
-        <v>7.669759170307095</v>
+        <v>9.197162369301019</v>
       </c>
       <c r="G4" t="n">
-        <v>4.841807571042276</v>
+        <v>10.3756492025398</v>
       </c>
       <c r="H4" t="n">
-        <v>31.92742400312509</v>
+        <v>8.749952888205298</v>
       </c>
       <c r="I4" t="n">
-        <v>49.09662536634362</v>
+        <v>11.15978149187776</v>
       </c>
       <c r="J4" t="n">
-        <v>88.98983330951029</v>
+        <v>8.650418098871048</v>
       </c>
     </row>
   </sheetData>
@@ -1400,31 +1400,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.58920539105144</v>
+        <v>32.86035492466919</v>
       </c>
       <c r="C4" t="n">
-        <v>22.89653828626163</v>
+        <v>17.18696338400387</v>
       </c>
       <c r="D4" t="n">
-        <v>21.72546690396467</v>
+        <v>9.635405246392644</v>
       </c>
       <c r="E4" t="n">
-        <v>15.82165186364388</v>
+        <v>3.065726654597337</v>
       </c>
       <c r="F4" t="n">
-        <v>7.67105980764294</v>
+        <v>7.722845673088226</v>
       </c>
       <c r="G4" t="n">
-        <v>4.835941889660118</v>
+        <v>8.008435404493124</v>
       </c>
       <c r="H4" t="n">
-        <v>31.9231104119932</v>
+        <v>2.853725826175522</v>
       </c>
       <c r="I4" t="n">
-        <v>49.07446029553389</v>
+        <v>7.870930714625894</v>
       </c>
       <c r="J4" t="n">
-        <v>88.96431892792506</v>
+        <v>26.75505130978357</v>
       </c>
     </row>
   </sheetData>

--- a/report/figures/task4/task4_tables_simulated1000times.xlsx
+++ b/report/figures/task4/task4_tables_simulated1000times.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.83682606297958</v>
+        <v>23.87454372424791</v>
       </c>
       <c r="C2" t="n">
-        <v>24.17757318652426</v>
+        <v>24.19263649617565</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3592242172277</v>
+        <v>24.37668184873147</v>
       </c>
       <c r="E2" t="n">
-        <v>24.73779974364598</v>
+        <v>24.7383286493653</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24.99895575311169</v>
       </c>
       <c r="G2" t="n">
-        <v>25.26220025635402</v>
+        <v>25.25492523914905</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6407757827723</v>
+        <v>25.62184855724538</v>
       </c>
       <c r="I2" t="n">
-        <v>25.82242681347574</v>
+        <v>25.79574817127075</v>
       </c>
       <c r="J2" t="n">
-        <v>26.16317393702042</v>
+        <v>26.13738058199421</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.83682606297958</v>
+        <v>24.24172147731738</v>
       </c>
       <c r="C3" t="n">
-        <v>24.17757318652426</v>
+        <v>24.22256717849217</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3592242172277</v>
+        <v>24.23687293586517</v>
       </c>
       <c r="E3" t="n">
-        <v>24.73779974364598</v>
+        <v>24.66071555352603</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24.93355580404849</v>
       </c>
       <c r="G3" t="n">
-        <v>25.26220025635402</v>
+        <v>25.18870466771353</v>
       </c>
       <c r="H3" t="n">
-        <v>25.6407757827723</v>
+        <v>25.50192022291078</v>
       </c>
       <c r="I3" t="n">
-        <v>25.82242681347574</v>
+        <v>25.75985036752409</v>
       </c>
       <c r="J3" t="n">
-        <v>26.16317393702042</v>
+        <v>25.77856573971627</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3646173326140852</v>
+        <v>0.3697489464900117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1432944441621046</v>
+        <v>0.1347190971509524</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1767357282249801</v>
+        <v>0.1664172104059983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1059808089990394</v>
+        <v>0.1075682060970084</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1026384011877066</v>
+        <v>0.1025448891846348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1035475935903144</v>
+        <v>0.103589032599587</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1334273681247536</v>
+        <v>0.1352502739424241</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1391631539473691</v>
+        <v>0.1326976136967108</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3608426558310708</v>
+        <v>0.3617454659263585</v>
       </c>
     </row>
   </sheetData>
@@ -660,31 +660,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.83682606297958</v>
+        <v>23.83794019542916</v>
       </c>
       <c r="C2" t="n">
-        <v>24.17757318652426</v>
+        <v>24.1790876632614</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3592242172277</v>
+        <v>24.3589005030475</v>
       </c>
       <c r="E2" t="n">
-        <v>24.73779974364598</v>
+        <v>24.73563172324661</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>25.00058508143699</v>
       </c>
       <c r="G2" t="n">
-        <v>25.26220025635402</v>
+        <v>25.26310890684691</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6407757827723</v>
+        <v>25.6416517504071</v>
       </c>
       <c r="I2" t="n">
-        <v>25.82242681347574</v>
+        <v>25.82124269912095</v>
       </c>
       <c r="J2" t="n">
-        <v>26.16317393702042</v>
+        <v>26.16151895840609</v>
       </c>
     </row>
     <row r="3">
@@ -694,31 +694,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.83682606297958</v>
+        <v>23.79273179023141</v>
       </c>
       <c r="C3" t="n">
-        <v>24.17757318652426</v>
+        <v>24.16693009876425</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3592242172277</v>
+        <v>24.35165040877917</v>
       </c>
       <c r="E3" t="n">
-        <v>24.73779974364598</v>
+        <v>24.73307097014505</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24.99784711682088</v>
       </c>
       <c r="G3" t="n">
-        <v>25.26220025635402</v>
+        <v>25.25893024142558</v>
       </c>
       <c r="H3" t="n">
-        <v>25.6407757827723</v>
+        <v>25.63642874433623</v>
       </c>
       <c r="I3" t="n">
-        <v>25.82242681347574</v>
+        <v>25.80721459360287</v>
       </c>
       <c r="J3" t="n">
-        <v>26.16317393702042</v>
+        <v>26.10967973172959</v>
       </c>
     </row>
     <row r="4">
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1035904546517781</v>
+        <v>0.1011917803070506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04050649286216162</v>
+        <v>0.0414043512872624</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03105572870490973</v>
+        <v>0.0287784513038121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02207941391777777</v>
+        <v>0.02126319433292184</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02167740420394964</v>
+        <v>0.02113832674887537</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0222092309890687</v>
+        <v>0.02189767018232647</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03039156351647832</v>
+        <v>0.02990395332473671</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04126271017745926</v>
+        <v>0.04230524335898354</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08691639641630011</v>
+        <v>0.09104785243532292</v>
       </c>
     </row>
   </sheetData>
@@ -828,31 +828,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.83682606297958</v>
+        <v>23.87454372424791</v>
       </c>
       <c r="C2" t="n">
-        <v>24.17757318652426</v>
+        <v>24.19263649617565</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3592242172277</v>
+        <v>24.37668184873147</v>
       </c>
       <c r="E2" t="n">
-        <v>24.73779974364598</v>
+        <v>24.7383286493653</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24.99895575311169</v>
       </c>
       <c r="G2" t="n">
-        <v>25.26220025635402</v>
+        <v>25.25492523914905</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6407757827723</v>
+        <v>25.62184855724538</v>
       </c>
       <c r="I2" t="n">
-        <v>25.82242681347574</v>
+        <v>25.79574817127075</v>
       </c>
       <c r="J2" t="n">
-        <v>26.16317393702042</v>
+        <v>26.13738058199421</v>
       </c>
     </row>
     <row r="3">
@@ -862,31 +862,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.83682606297958</v>
+        <v>17.752</v>
       </c>
       <c r="C3" t="n">
-        <v>24.17757318652426</v>
+        <v>17.479</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3592242172277</v>
+        <v>17.585</v>
       </c>
       <c r="E3" t="n">
-        <v>24.73779974364598</v>
+        <v>21.578</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="G3" t="n">
-        <v>25.26220025635402</v>
+        <v>26.893</v>
       </c>
       <c r="H3" t="n">
-        <v>25.6407757827723</v>
+        <v>30.064</v>
       </c>
       <c r="I3" t="n">
-        <v>25.82242681347574</v>
+        <v>32.939</v>
       </c>
       <c r="J3" t="n">
-        <v>26.16317393702042</v>
+        <v>32.965</v>
       </c>
     </row>
     <row r="4">
@@ -896,31 +896,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.95812142663687</v>
+        <v>4.068741449020775</v>
       </c>
       <c r="C4" t="n">
-        <v>1.418086138995737</v>
+        <v>1.394813443195811</v>
       </c>
       <c r="D4" t="n">
-        <v>1.543327873519427</v>
+        <v>1.576822399289295</v>
       </c>
       <c r="E4" t="n">
-        <v>1.048823662618287</v>
+        <v>1.096440479160125</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0923</v>
+        <v>1.0773</v>
       </c>
       <c r="G4" t="n">
-        <v>1.153461102709598</v>
+        <v>1.13366192687324</v>
       </c>
       <c r="H4" t="n">
-        <v>1.417089234059894</v>
+        <v>1.380124861039015</v>
       </c>
       <c r="I4" t="n">
-        <v>1.330603383967236</v>
+        <v>1.388156420725941</v>
       </c>
       <c r="J4" t="n">
-        <v>3.334034025244109</v>
+        <v>3.301590030438478</v>
       </c>
     </row>
   </sheetData>
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.83682606297958</v>
+        <v>23.83794019542916</v>
       </c>
       <c r="C2" t="n">
-        <v>24.17757318652426</v>
+        <v>24.1790876632614</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3592242172277</v>
+        <v>24.3589005030475</v>
       </c>
       <c r="E2" t="n">
-        <v>24.73779974364598</v>
+        <v>24.73563172324661</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>25.00058508143699</v>
       </c>
       <c r="G2" t="n">
-        <v>25.26220025635402</v>
+        <v>25.26310890684691</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6407757827723</v>
+        <v>25.6416517504071</v>
       </c>
       <c r="I2" t="n">
-        <v>25.82242681347574</v>
+        <v>25.82124269912095</v>
       </c>
       <c r="J2" t="n">
-        <v>26.16317393702042</v>
+        <v>26.16151895840609</v>
       </c>
     </row>
     <row r="3">
@@ -1030,31 +1030,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.83682606297958</v>
+        <v>13.824</v>
       </c>
       <c r="C3" t="n">
-        <v>24.17757318652426</v>
+        <v>17.008</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3592242172277</v>
+        <v>18.69</v>
       </c>
       <c r="E3" t="n">
-        <v>24.73779974364598</v>
+        <v>22.224</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24.826</v>
       </c>
       <c r="G3" t="n">
-        <v>25.26220025635402</v>
+        <v>27.465</v>
       </c>
       <c r="H3" t="n">
-        <v>25.6407757827723</v>
+        <v>31.422</v>
       </c>
       <c r="I3" t="n">
-        <v>25.82242681347574</v>
+        <v>33.356</v>
       </c>
       <c r="J3" t="n">
-        <v>26.16317393702042</v>
+        <v>36.73</v>
       </c>
     </row>
     <row r="4">
@@ -1064,31 +1064,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9658465348301318</v>
+        <v>0.9424378061563564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4805165453427234</v>
+        <v>0.4639762669105813</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3579003355706806</v>
+        <v>0.3722750555201107</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3478119969187544</v>
+        <v>0.3464851209175444</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3446650000000001</v>
+        <v>0.34454</v>
       </c>
       <c r="G4" t="n">
-        <v>0.358943490901962</v>
+        <v>0.3689832830351376</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3903419108650018</v>
+        <v>0.3960792354121909</v>
       </c>
       <c r="I4" t="n">
-        <v>0.506202262463244</v>
+        <v>0.476020239835568</v>
       </c>
       <c r="J4" t="n">
-        <v>0.913843701408272</v>
+        <v>0.85046947917954</v>
       </c>
     </row>
   </sheetData>
@@ -1164,31 +1164,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.83682606297958</v>
+        <v>23.87454372424791</v>
       </c>
       <c r="C2" t="n">
-        <v>24.17757318652426</v>
+        <v>24.19263649617565</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3592242172277</v>
+        <v>24.37668184873147</v>
       </c>
       <c r="E2" t="n">
-        <v>24.73779974364598</v>
+        <v>24.7383286493653</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24.99895575311169</v>
       </c>
       <c r="G2" t="n">
-        <v>25.26220025635402</v>
+        <v>25.25492523914905</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6407757827723</v>
+        <v>25.62184855724538</v>
       </c>
       <c r="I2" t="n">
-        <v>25.82242681347574</v>
+        <v>25.79574817127075</v>
       </c>
       <c r="J2" t="n">
-        <v>26.16317393702042</v>
+        <v>26.13738058199421</v>
       </c>
     </row>
     <row r="3">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.83682606297958</v>
+        <v>2.419762872126196</v>
       </c>
       <c r="C3" t="n">
-        <v>24.17757318652426</v>
+        <v>2.676817337915357</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3592242172277</v>
+        <v>2.630435912484228</v>
       </c>
       <c r="E3" t="n">
-        <v>24.73779974364598</v>
+        <v>8.254819202350776</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>15.93607837721714</v>
       </c>
       <c r="G3" t="n">
-        <v>25.26220025635402</v>
+        <v>28.07910457157102</v>
       </c>
       <c r="H3" t="n">
-        <v>25.6407757827723</v>
+        <v>48.44504141798044</v>
       </c>
       <c r="I3" t="n">
-        <v>25.82242681347574</v>
+        <v>73.94893137241901</v>
       </c>
       <c r="J3" t="n">
-        <v>26.16317393702042</v>
+        <v>72.5887213975267</v>
       </c>
     </row>
     <row r="4">
@@ -1232,31 +1232,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.08452889269866</v>
+        <v>31.42917188297283</v>
       </c>
       <c r="C4" t="n">
-        <v>15.75328297571847</v>
+        <v>15.88652766240278</v>
       </c>
       <c r="D4" t="n">
-        <v>7.813397441518031</v>
+        <v>8.018329524729195</v>
       </c>
       <c r="E4" t="n">
-        <v>4.966058140982821</v>
+        <v>4.719936827248233</v>
       </c>
       <c r="F4" t="n">
-        <v>9.197162369301019</v>
+        <v>9.212780953643705</v>
       </c>
       <c r="G4" t="n">
-        <v>10.3756492025398</v>
+        <v>10.48622826835028</v>
       </c>
       <c r="H4" t="n">
-        <v>8.749952888205298</v>
+        <v>9.017570271371213</v>
       </c>
       <c r="I4" t="n">
-        <v>11.15978149187776</v>
+        <v>11.20161354385367</v>
       </c>
       <c r="J4" t="n">
-        <v>8.650418098871048</v>
+        <v>8.590871160328668</v>
       </c>
     </row>
   </sheetData>
@@ -1332,31 +1332,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.83682606297958</v>
+        <v>23.83794019542916</v>
       </c>
       <c r="C2" t="n">
-        <v>24.17757318652426</v>
+        <v>24.1790876632614</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3592242172277</v>
+        <v>24.3589005030475</v>
       </c>
       <c r="E2" t="n">
-        <v>24.73779974364598</v>
+        <v>24.73563172324661</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>25.00058508143699</v>
       </c>
       <c r="G2" t="n">
-        <v>25.26220025635402</v>
+        <v>25.26310890684691</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6407757827723</v>
+        <v>25.6416517504071</v>
       </c>
       <c r="I2" t="n">
-        <v>25.82242681347574</v>
+        <v>25.82124269912095</v>
       </c>
       <c r="J2" t="n">
-        <v>26.16317393702042</v>
+        <v>26.16151895840609</v>
       </c>
     </row>
     <row r="3">
@@ -1366,31 +1366,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.83682606297958</v>
+        <v>0.2477755202726766</v>
       </c>
       <c r="C3" t="n">
-        <v>24.17757318652426</v>
+        <v>1.256130258596948</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3592242172277</v>
+        <v>2.627479332020867</v>
       </c>
       <c r="E3" t="n">
-        <v>24.73779974364598</v>
+        <v>8.882010488631076</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>17.22360773489194</v>
       </c>
       <c r="G3" t="n">
-        <v>25.26220025635402</v>
+        <v>29.77107067797244</v>
       </c>
       <c r="H3" t="n">
-        <v>25.6407757827723</v>
+        <v>56.96984752965274</v>
       </c>
       <c r="I3" t="n">
-        <v>25.82242681347574</v>
+        <v>73.6572295893571</v>
       </c>
       <c r="J3" t="n">
-        <v>26.16317393702042</v>
+        <v>108.9052906752176</v>
       </c>
     </row>
     <row r="4">
@@ -1400,31 +1400,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.86035492466919</v>
+        <v>33.0130846476453</v>
       </c>
       <c r="C4" t="n">
-        <v>17.18696338400387</v>
+        <v>17.12829955405448</v>
       </c>
       <c r="D4" t="n">
-        <v>9.635405246392644</v>
+        <v>9.453324746992688</v>
       </c>
       <c r="E4" t="n">
-        <v>3.065726654597337</v>
+        <v>3.089098640665182</v>
       </c>
       <c r="F4" t="n">
-        <v>7.722845673088226</v>
+        <v>7.772930338755037</v>
       </c>
       <c r="G4" t="n">
-        <v>8.008435404493124</v>
+        <v>8.162294242667478</v>
       </c>
       <c r="H4" t="n">
-        <v>2.853725826175522</v>
+        <v>2.987544677100685</v>
       </c>
       <c r="I4" t="n">
-        <v>7.870930714625894</v>
+        <v>8.016924208554887</v>
       </c>
       <c r="J4" t="n">
-        <v>26.75505130978357</v>
+        <v>26.1855907003813</v>
       </c>
     </row>
   </sheetData>

--- a/report/figures/task4/task4_tables_simulated1000times.xlsx
+++ b/report/figures/task4/task4_tables_simulated1000times.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.87454372424791</v>
+        <v>23.87180396383139</v>
       </c>
       <c r="C2" t="n">
-        <v>24.19263649617565</v>
+        <v>24.1805656916652</v>
       </c>
       <c r="D2" t="n">
-        <v>24.37668184873147</v>
+        <v>24.3640774888859</v>
       </c>
       <c r="E2" t="n">
-        <v>24.7383286493653</v>
+        <v>24.7449855769346</v>
       </c>
       <c r="F2" t="n">
-        <v>24.99895575311169</v>
+        <v>25.0053440653106</v>
       </c>
       <c r="G2" t="n">
-        <v>25.25492523914905</v>
+        <v>25.24533249833592</v>
       </c>
       <c r="H2" t="n">
-        <v>25.62184855724538</v>
+        <v>25.62075629627157</v>
       </c>
       <c r="I2" t="n">
-        <v>25.79574817127075</v>
+        <v>25.78971117441768</v>
       </c>
       <c r="J2" t="n">
-        <v>26.13738058199421</v>
+        <v>26.13661821410928</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.24172147731738</v>
+        <v>24.23456508870103</v>
       </c>
       <c r="C3" t="n">
-        <v>24.22256717849217</v>
+        <v>24.21455702133238</v>
       </c>
       <c r="D3" t="n">
-        <v>24.23687293586517</v>
+        <v>24.2196133997345</v>
       </c>
       <c r="E3" t="n">
-        <v>24.66071555352603</v>
+        <v>24.67609251724885</v>
       </c>
       <c r="F3" t="n">
-        <v>24.93355580404849</v>
+        <v>24.94443036809684</v>
       </c>
       <c r="G3" t="n">
-        <v>25.18870466771353</v>
+        <v>25.17522453265795</v>
       </c>
       <c r="H3" t="n">
-        <v>25.50192022291078</v>
+        <v>25.49791278528379</v>
       </c>
       <c r="I3" t="n">
-        <v>25.75985036752409</v>
+        <v>25.75884469330269</v>
       </c>
       <c r="J3" t="n">
-        <v>25.77856573971627</v>
+        <v>25.77772607486702</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3697489464900117</v>
+        <v>0.3642035313545037</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1347190971509524</v>
+        <v>0.1317392951662804</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1664172104059983</v>
+        <v>0.1712477475514438</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1075682060970084</v>
+        <v>0.1078717966862089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1025448891846348</v>
+        <v>0.1020372369718084</v>
       </c>
       <c r="G4" t="n">
-        <v>0.103589032599587</v>
+        <v>0.1028393356197058</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1352502739424241</v>
+        <v>0.1404019613583398</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1326976136967108</v>
+        <v>0.1401553809923656</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3617454659263585</v>
+        <v>0.3613902048611915</v>
       </c>
     </row>
   </sheetData>
@@ -660,31 +660,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.83794019542916</v>
+        <v>23.84261006101116</v>
       </c>
       <c r="C2" t="n">
-        <v>24.1790876632614</v>
+        <v>24.17951768034374</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3589005030475</v>
+        <v>24.35666471343867</v>
       </c>
       <c r="E2" t="n">
-        <v>24.73563172324661</v>
+        <v>24.73809370671515</v>
       </c>
       <c r="F2" t="n">
-        <v>25.00058508143699</v>
+        <v>25.00063167936812</v>
       </c>
       <c r="G2" t="n">
-        <v>25.26310890684691</v>
+        <v>25.26181437092359</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6416517504071</v>
+        <v>25.64032519453787</v>
       </c>
       <c r="I2" t="n">
-        <v>25.82124269912095</v>
+        <v>25.82482430204459</v>
       </c>
       <c r="J2" t="n">
-        <v>26.16151895840609</v>
+        <v>26.15859608685751</v>
       </c>
     </row>
     <row r="3">
@@ -694,31 +694,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.79273179023141</v>
+        <v>23.80011149899263</v>
       </c>
       <c r="C3" t="n">
-        <v>24.16693009876425</v>
+        <v>24.16721267428206</v>
       </c>
       <c r="D3" t="n">
-        <v>24.35165040877917</v>
+        <v>24.34923861624506</v>
       </c>
       <c r="E3" t="n">
-        <v>24.73307097014505</v>
+        <v>24.73449030485465</v>
       </c>
       <c r="F3" t="n">
-        <v>24.99784711682088</v>
+        <v>24.99664668575441</v>
       </c>
       <c r="G3" t="n">
-        <v>25.25893024142558</v>
+        <v>25.25897181352501</v>
       </c>
       <c r="H3" t="n">
-        <v>25.63642874433623</v>
+        <v>25.63277426401706</v>
       </c>
       <c r="I3" t="n">
-        <v>25.80721459360287</v>
+        <v>25.81065920241867</v>
       </c>
       <c r="J3" t="n">
-        <v>26.10967973172959</v>
+        <v>26.10883895079121</v>
       </c>
     </row>
     <row r="4">
@@ -728,31 +728,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1011917803070506</v>
+        <v>0.09850863615117343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0414043512872624</v>
+        <v>0.04257612172447701</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0287784513038121</v>
+        <v>0.02904766376014743</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02126319433292184</v>
+        <v>0.02175067548771113</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02113832674887537</v>
+        <v>0.02156340660753037</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02189767018232647</v>
+        <v>0.02270466751818584</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02990395332473671</v>
+        <v>0.03028945074606635</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04230524335898354</v>
+        <v>0.0401680330289759</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09104785243532292</v>
+        <v>0.08983862287146903</v>
       </c>
     </row>
   </sheetData>
@@ -828,31 +828,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.87454372424791</v>
+        <v>13.77806824321479</v>
       </c>
       <c r="C2" t="n">
-        <v>24.19263649617565</v>
+        <v>17.09421518344339</v>
       </c>
       <c r="D2" t="n">
-        <v>24.37668184873147</v>
+        <v>18.80041675575649</v>
       </c>
       <c r="E2" t="n">
-        <v>24.7383286493653</v>
+        <v>22.47070557297137</v>
       </c>
       <c r="F2" t="n">
-        <v>24.99895575311169</v>
+        <v>24.9897</v>
       </c>
       <c r="G2" t="n">
-        <v>25.25492523914905</v>
+        <v>27.63411562836513</v>
       </c>
       <c r="H2" t="n">
-        <v>25.62184855724538</v>
+        <v>31.30548404076626</v>
       </c>
       <c r="I2" t="n">
-        <v>25.79574817127075</v>
+        <v>32.95430506781293</v>
       </c>
       <c r="J2" t="n">
-        <v>26.13738058199421</v>
+        <v>36.17111193471298</v>
       </c>
     </row>
     <row r="3">
@@ -862,31 +862,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.752</v>
+        <v>17.749</v>
       </c>
       <c r="C3" t="n">
-        <v>17.479</v>
+        <v>17.706</v>
       </c>
       <c r="D3" t="n">
-        <v>17.585</v>
+        <v>17.609</v>
       </c>
       <c r="E3" t="n">
-        <v>21.578</v>
+        <v>21.665</v>
       </c>
       <c r="F3" t="n">
-        <v>24.2</v>
+        <v>24.224</v>
       </c>
       <c r="G3" t="n">
-        <v>26.893</v>
+        <v>26.873</v>
       </c>
       <c r="H3" t="n">
-        <v>30.064</v>
+        <v>30.085</v>
       </c>
       <c r="I3" t="n">
-        <v>32.939</v>
+        <v>32.917</v>
       </c>
       <c r="J3" t="n">
-        <v>32.965</v>
+        <v>32.867</v>
       </c>
     </row>
     <row r="4">
@@ -896,31 +896,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.068741449020775</v>
+        <v>3.984645403188291</v>
       </c>
       <c r="C4" t="n">
-        <v>1.394813443195811</v>
+        <v>1.414768915114103</v>
       </c>
       <c r="D4" t="n">
-        <v>1.576822399289295</v>
+        <v>1.579672560048848</v>
       </c>
       <c r="E4" t="n">
-        <v>1.096440479160125</v>
+        <v>1.096261739306732</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0773</v>
+        <v>1.0941</v>
       </c>
       <c r="G4" t="n">
-        <v>1.13366192687324</v>
+        <v>1.142150389719657</v>
       </c>
       <c r="H4" t="n">
-        <v>1.380124861039015</v>
+        <v>1.43014210081546</v>
       </c>
       <c r="I4" t="n">
-        <v>1.388156420725941</v>
+        <v>1.304315223552596</v>
       </c>
       <c r="J4" t="n">
-        <v>3.301590030438478</v>
+        <v>3.340719316323076</v>
       </c>
     </row>
   </sheetData>
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.83794019542916</v>
+        <v>13.39270082981064</v>
       </c>
       <c r="C2" t="n">
-        <v>24.1790876632614</v>
+        <v>16.83278826651333</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3589005030475</v>
+        <v>18.57360174147371</v>
       </c>
       <c r="E2" t="n">
-        <v>24.73563172324661</v>
+        <v>22.36713974604061</v>
       </c>
       <c r="F2" t="n">
-        <v>25.00058508143699</v>
+        <v>24.98688</v>
       </c>
       <c r="G2" t="n">
-        <v>25.26310890684691</v>
+        <v>27.62848951284844</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6416517504071</v>
+        <v>31.4109979893062</v>
       </c>
       <c r="I2" t="n">
-        <v>25.82124269912095</v>
+        <v>33.20765819191125</v>
       </c>
       <c r="J2" t="n">
-        <v>26.16151895840609</v>
+        <v>36.60898158207744</v>
       </c>
     </row>
     <row r="3">
@@ -1030,31 +1030,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.824</v>
+        <v>13.849</v>
       </c>
       <c r="C3" t="n">
-        <v>17.008</v>
+        <v>17.029</v>
       </c>
       <c r="D3" t="n">
-        <v>18.69</v>
+        <v>18.625</v>
       </c>
       <c r="E3" t="n">
-        <v>22.224</v>
+        <v>22.209</v>
       </c>
       <c r="F3" t="n">
-        <v>24.826</v>
+        <v>24.784</v>
       </c>
       <c r="G3" t="n">
-        <v>27.465</v>
+        <v>27.496</v>
       </c>
       <c r="H3" t="n">
-        <v>31.422</v>
+        <v>31.421</v>
       </c>
       <c r="I3" t="n">
-        <v>33.356</v>
+        <v>33.305</v>
       </c>
       <c r="J3" t="n">
-        <v>36.73</v>
+        <v>36.725</v>
       </c>
     </row>
     <row r="4">
@@ -1064,31 +1064,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9424378061563564</v>
+        <v>0.9596150494248818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4639762669105813</v>
+        <v>0.4814760356985478</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3722750555201107</v>
+        <v>0.3686121071437018</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3464851209175444</v>
+        <v>0.3323492632988814</v>
       </c>
       <c r="F4" t="n">
-        <v>0.34454</v>
+        <v>0.34657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3689832830351376</v>
+        <v>0.3590894279780328</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3960792354121909</v>
+        <v>0.3771041171659112</v>
       </c>
       <c r="I4" t="n">
-        <v>0.476020239835568</v>
+        <v>0.4896903990542166</v>
       </c>
       <c r="J4" t="n">
-        <v>0.85046947917954</v>
+        <v>0.8817374535865513</v>
       </c>
     </row>
   </sheetData>
@@ -1164,31 +1164,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.87454372424791</v>
+        <v>-28.6601782181525</v>
       </c>
       <c r="C2" t="n">
-        <v>24.19263649617565</v>
+        <v>-13.34590066605771</v>
       </c>
       <c r="D2" t="n">
-        <v>24.37668184873147</v>
+        <v>-4.502355843226502</v>
       </c>
       <c r="E2" t="n">
-        <v>24.7383286493653</v>
+        <v>12.88324737123663</v>
       </c>
       <c r="F2" t="n">
-        <v>24.99895575311169</v>
+        <v>25.04524025700684</v>
       </c>
       <c r="G2" t="n">
-        <v>25.25492523914905</v>
+        <v>36.72954568603858</v>
       </c>
       <c r="H2" t="n">
-        <v>25.62184855724538</v>
+        <v>54.48801513830108</v>
       </c>
       <c r="I2" t="n">
-        <v>25.79574817127075</v>
+        <v>62.31668525205316</v>
       </c>
       <c r="J2" t="n">
-        <v>26.13738058199421</v>
+        <v>77.79068337982291</v>
       </c>
     </row>
     <row r="3">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.419762872126196</v>
+        <v>2.445345350727157</v>
       </c>
       <c r="C3" t="n">
-        <v>2.676817337915357</v>
+        <v>2.423424035542313</v>
       </c>
       <c r="D3" t="n">
-        <v>2.630435912484228</v>
+        <v>2.5802864609042</v>
       </c>
       <c r="E3" t="n">
-        <v>8.254819202350776</v>
+        <v>8.488680770349108</v>
       </c>
       <c r="F3" t="n">
-        <v>15.93607837721714</v>
+        <v>16.18615787987534</v>
       </c>
       <c r="G3" t="n">
-        <v>28.07910457157102</v>
+        <v>27.25621143337921</v>
       </c>
       <c r="H3" t="n">
-        <v>48.44504141798044</v>
+        <v>48.58811509531516</v>
       </c>
       <c r="I3" t="n">
-        <v>73.94893137241901</v>
+        <v>71.86355945079694</v>
       </c>
       <c r="J3" t="n">
-        <v>72.5887213975267</v>
+        <v>72.29296757957488</v>
       </c>
     </row>
     <row r="4">
@@ -1232,31 +1232,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.42917188297283</v>
+        <v>31.10552356887966</v>
       </c>
       <c r="C4" t="n">
-        <v>15.88652766240278</v>
+        <v>15.80630299960829</v>
       </c>
       <c r="D4" t="n">
-        <v>8.018329524729195</v>
+        <v>7.593551590800314</v>
       </c>
       <c r="E4" t="n">
-        <v>4.719936827248233</v>
+        <v>4.63821659990811</v>
       </c>
       <c r="F4" t="n">
-        <v>9.212780953643705</v>
+        <v>8.993775927188194</v>
       </c>
       <c r="G4" t="n">
-        <v>10.48622826835028</v>
+        <v>10.04887385034861</v>
       </c>
       <c r="H4" t="n">
-        <v>9.017570271371213</v>
+        <v>8.585515384475183</v>
       </c>
       <c r="I4" t="n">
-        <v>11.20161354385367</v>
+        <v>10.71648903855059</v>
       </c>
       <c r="J4" t="n">
-        <v>8.590871160328668</v>
+        <v>8.781389161043101</v>
       </c>
     </row>
   </sheetData>
@@ -1332,31 +1332,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.83794019542916</v>
+        <v>-32.82398449926355</v>
       </c>
       <c r="C2" t="n">
-        <v>24.1790876632614</v>
+        <v>-15.88314931451117</v>
       </c>
       <c r="D2" t="n">
-        <v>24.3589005030475</v>
+        <v>-6.903226744150799</v>
       </c>
       <c r="E2" t="n">
-        <v>24.73563172324661</v>
+        <v>11.91675148355783</v>
       </c>
       <c r="F2" t="n">
-        <v>25.00058508143699</v>
+        <v>25.06464254008879</v>
       </c>
       <c r="G2" t="n">
-        <v>25.26310890684691</v>
+        <v>38.00938481947981</v>
       </c>
       <c r="H2" t="n">
-        <v>25.6416517504071</v>
+        <v>57.14562937885159</v>
       </c>
       <c r="I2" t="n">
-        <v>25.82124269912095</v>
+        <v>65.69352596949174</v>
       </c>
       <c r="J2" t="n">
-        <v>26.16151895840609</v>
+        <v>82.6593730544122</v>
       </c>
     </row>
     <row r="3">
@@ -1366,31 +1366,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2477755202726766</v>
+        <v>0.2539094527085612</v>
       </c>
       <c r="C3" t="n">
-        <v>1.256130258596948</v>
+        <v>1.278391104475879</v>
       </c>
       <c r="D3" t="n">
-        <v>2.627479332020867</v>
+        <v>2.597348808563679</v>
       </c>
       <c r="E3" t="n">
-        <v>8.882010488631076</v>
+        <v>8.827947019791798</v>
       </c>
       <c r="F3" t="n">
-        <v>17.22360773489194</v>
+        <v>17.23799379476381</v>
       </c>
       <c r="G3" t="n">
-        <v>29.77107067797244</v>
+        <v>29.8275232195619</v>
       </c>
       <c r="H3" t="n">
-        <v>56.96984752965274</v>
+        <v>57.23178313599291</v>
       </c>
       <c r="I3" t="n">
-        <v>73.6572295893571</v>
+        <v>73.45297707402577</v>
       </c>
       <c r="J3" t="n">
-        <v>108.9052906752176</v>
+        <v>109.2071351052156</v>
       </c>
     </row>
     <row r="4">
@@ -1400,31 +1400,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.0130846476453</v>
+        <v>33.07789395197211</v>
       </c>
       <c r="C4" t="n">
-        <v>17.12829955405448</v>
+        <v>17.16154041898705</v>
       </c>
       <c r="D4" t="n">
-        <v>9.453324746992688</v>
+        <v>9.50057555271448</v>
       </c>
       <c r="E4" t="n">
-        <v>3.089098640665182</v>
+        <v>3.08942372271563</v>
       </c>
       <c r="F4" t="n">
-        <v>7.772930338755037</v>
+        <v>7.826648745324979</v>
       </c>
       <c r="G4" t="n">
-        <v>8.162294242667478</v>
+        <v>8.181861599917909</v>
       </c>
       <c r="H4" t="n">
-        <v>2.987544677100685</v>
+        <v>2.89699843692339</v>
       </c>
       <c r="I4" t="n">
-        <v>8.016924208554887</v>
+        <v>8.015093322673176</v>
       </c>
       <c r="J4" t="n">
-        <v>26.1855907003813</v>
+        <v>26.54776205080337</v>
       </c>
     </row>
   </sheetData>
